--- a/Image sizes.xlsx
+++ b/Image sizes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">Section</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Size</t>
+    <t xml:space="preserve">Size [px]</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
@@ -43,7 +43,19 @@
     <t xml:space="preserve">Register.png</t>
   </si>
   <si>
+    <t xml:space="preserve">500x393</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500x268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home_logged.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">782x442</t>
   </si>
 </sst>
 </file>
@@ -153,15 +165,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -194,14 +208,30 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Image sizes.xlsx
+++ b/Image sizes.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Home_logged.png</t>
   </si>
   <si>
-    <t xml:space="preserve">782x442</t>
+    <t xml:space="preserve">2500x1847</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
